--- a/Ageipelago El Cid.xlsx
+++ b/Ageipelago El Cid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/BB6DD295C338E39F/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="8_{8A0A14B8-1491-4145-A422-5832A82E26A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C5E52ED-70A7-4576-BD36-6B43E5230A46}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="8_{8A0A14B8-1491-4145-A422-5832A82E26A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{570C51EE-A6FD-493B-85A2-6B3E8E985559}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B8266A09-EF6B-4D9A-952F-8D97365221FC}"/>
+    <workbookView xWindow="-28545" yWindow="1335" windowWidth="27045" windowHeight="13740" xr2:uid="{B8266A09-EF6B-4D9A-952F-8D97365221FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -252,9 +252,6 @@
     </r>
   </si>
   <si>
-    <t>Might wanna reduce the Relic Objectives, since there's 4 of them in one Place. On the other Hand, some easy checks don't hurt either.</t>
-  </si>
-  <si>
     <t>El Cid Campeador
 4 Villagers
 10 Knights
@@ -339,52 +336,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Goal is to bring Relics to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>the</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Imam</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, but we want to kill him, so the Island should be enough.
-Instead of just despawning, those Villagers might as well do something usefull.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Bring 1/2/3 Relic/s to </t>
     </r>
     <r>
@@ -1200,11 +1151,6 @@
   </si>
   <si>
     <t>Logic</t>
-  </si>
-  <si>
-    <t>5 Knights
-3 Light Cavalry
-6 Long Swordsmen</t>
   </si>
   <si>
     <t>Build a Town Center</t>
@@ -1344,251 +1290,9 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Moderate:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Starting Army:
-3 Light Cavalry
-8 Knights
-4 Conquistdores
-4 Long Swordsmen
-10 Pikemen
-10 Archers
-4 Mangonels
-1 Battering Ram
-1 Missionary
-Later:
-5 Knights
-10 Long Swordsmen
-2 Missionaries
-Endless Scorpions
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Standard:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Starting Army identical to Moderate, but does not train ANY troops
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Hard:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Starting Army is identical to Moderate
-Later:
-12 Long Swordsmen
-4 Missionaries</t>
-    </r>
-  </si>
-  <si>
     <t>Bringing the Relics to the Imam's Island and defeating the Imam requires either the Gaia Transport Ship or Docks and Transport Ships to be unlocked.
 Any Relics past the first one require Docks and Warships to be unlocked.
 Any Relics require the Player to be able to fight both Player 3 and Player 4 and to have Monasteries and Monks unlocked.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Moderate:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8 Camel Riders
-8 Elite Skirmishers
-3 Monks</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Standard:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">5 Camel Riders
-4 Pikemen
-4 Crossbowmen
-0 Elite Skirmishers
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Hard:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5 Camel Riders
-8 Pikemen
-10 Crossbowmen
-0 Elite Skirmishers</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Moderate:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-7 Knights
-6 Long Swordsmen
-2 Monks
-5 Battering Rams
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Standard:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-5 Knights
-0 Long Swordsmen
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Hard:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6 Chevalier 
-(counted as Knights for their max. Number, not retrained)
-10 Knights
-8 Long Swordsmen</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1778,107 +1482,6 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Moderate:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Starting Army:
-6 Pikemen
-11 Long Swordsmen
-4 Men-at-Arms
-10 Archers
-3 Knights
-3 Light Cavalry
-1 Monk
-2 Mangonels
-2 Battering Rams
-Later:
-5 Throwing Axemen
-5 Knights
-14 Long Swordsmen
-5 Crossbowmen
-2 Battering Rams
-2 Monks
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Standard:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Starting Army:
-Identical to Moderate
-Later:
-3 Throwing Axemen
-5 Knights
-4 Long Swordsmen
-5 Crossbowmen
-1 Battering Ram
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Hard:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Starting Army:
-Identical to Moderate
-Later:
-6 Throwing Axemen
-12 Knights
-12 Long Swordsmen
-4 Crossbowmen
-2 Battering Rams
-4 Monks</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <sz val="14"/>
         <color rgb="FF06EEFA"/>
         <rFont val="Calibri"/>
@@ -2184,69 +1787,6 @@
         <family val="2"/>
       </rPr>
       <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Slow Unlocking of all Monk-Techs
-Starting Troops of </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>King Alfonso's Army</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The Wood given by </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>King Alfonso's Army</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> depends on their Stockpile.
-I considered making the Docks progressive like the Castles, but they seem to minor?
-I have no idea as to what the effect of destroying the Transports is in Vanilla.
-Added Item to gain control of </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>King Alfonso's Army's</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Troops that usually die against the Enemies in the initial Battle.</t>
     </r>
   </si>
   <si>
@@ -2262,263 +1802,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Moderate:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Starting Army:
-4 Knights
-6 Camel Riders
-4 Cavalry Archers
-1 Mameluke
-Later:
-5 Knights
-6 Camel Riders
-10 Cavalry Archers
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Standard:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Starting Army: identical to Moderate
-Later:
-2 Knights
-0 Camel Riders
-0 Cavalry Archers
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Hard:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Starting Army:
-Identical to Moderate
-Later:
-Identical to Moderate
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Moderate:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-10 Pikemen
-10 Elite Skirmishers
-6 Heavy Camel Riders
-3 Scorpions
-2 Trebuchets
-4 Galleons
-3 Heavy Demolition Ships
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Standard:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-5 Pikemen
-6 Heavy Camel Riders
-2 Trebuchets
-3 Heavy Demolition Ships
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Hard:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Identical to Moderate</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Moderate:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Starting Army:
-19 Camel Riders
-5 Mamelukes
-8 Camel Archers
-5 Onagers
-Later:
-5 Hussars
-6 Heavy Camel Riders
-10 Heavy Cavalry Archers
-10 Camel Archers
-2 Trebuchets
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Standard:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Starting Army:
-10 Camel Riders
-4 Mamelukes
-6 Camel Archers
-0 Onagers
-Later:
-5 Heavy Camel Riders
-2 Trebuchets
-0 Cavalry Archers
-0 Hussars
-0 Camel Archers
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Hard:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Starting Army:
-Identical to Moderate
-Later: Identical to Moderate</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">It is possible to defend </t>
     </r>
     <r>
@@ -2731,93 +2014,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Moderate:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Starting Army:
-3 Long Swordsmen
-5 Pikemen
-10 Archers
-2 Scout Cavalry
-5 Knights
-Later:
-10 Paladins
-10 Champions
-6 Archers
-2 Monks
-3 Mangonels
-4 Battering Rams
-3 Bombard Cannons
-1 Trebuchet
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Standard:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Identical to Moderate
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Hard:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Starting Army:
-Identical to Moderate
-Later:
-3 Trebuchets</t>
     </r>
   </si>
   <si>
@@ -2875,6 +2071,1012 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Collecting the Relic requires Monks to be unlocked and either Monasteries to be unlocked or the Gaia Monastery.
+Defeating </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yusuf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> requires Transport Ships and either Bombard Cannons, Trebuchets or Cannon Galleons.
+The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Hero Towers </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Castles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> require either Cannon Galleons or Transport Ships and Bombard Cannons or Trebuchets.</t>
+    </r>
+  </si>
+  <si>
+    <t>5 Knights
+3 Light Cavalry
+6 Long Swordsmen
+(not counting Player starting Troops)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Might wanna reduce the Relic Objectives, since there's 4 of them in one Place. On the other Hand, some easy checks don't hurt either.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">King Alfonso's Army </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>will keep training Scorpions until he has 10 Archers.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> He is meant to train up to 4 Scorpions and Archers up to 10 Archers.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Army:
+3 Light Cavalry
+8 Knights
+4 Conquistdores
+4 Long Swordsmen
+10 Pikemen
+10 Archers
+4 Mangonels
+1 Missionary
+Later:
+5 Knights
+12 Long Swordsmen
+2 Missionaries
+Endless Scorpions
+1 Battering Ram
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Army:
+Identical to Moderate
+Later:
+1 Missionary
+1 Battering Ram
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Army is identical to Moderate
+Later:
+5 Knights
+12 Long Swordsmen
+4 Missionaries
+Endless Scorpions
+3 Battering Rams</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Moderate:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Starting Army:
+ 6 Chevalier
+1 Monk
+Later:
+7 Knights
+10 Long Swordsmen
+2 Monks
+5 Battering Rams
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Army:
+Identical to Moderate
+Later:
+5 Knights
+5 Battering Rams
+1 Monk
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Identical to Moderate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Moderate:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Starting Army:
+5 Camel Riders
+2 Monks
+Later:
+10 Camel Riders OR 10 Pikemen (50% each)
+10 Crossbowmen (if Pikemen)
+10 Elite Skirmishers (if Camel Riders)
+1 Monk
+2 Mangonels
+2 Battering Rams</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Standard:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Starting Army:
+Identical to Moderate
+Later:
+2 Camel Riders OR 3 Pikemen (50% each)
+4 Crossbowmen (if Pikemen)
+1 Monk
+2 Battering Rams
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Hard:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Identical to Moderate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Goal is to bring Relics to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Imam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, but we want to kill him, so the Island should be enough.
+Instead of just despawning, those Villagers might as well do something usefull.
+For some goddamn Reason </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moorish Rebels</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> have 2 different Unit Compositions at a 50% Chance each.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Army:
+6 Pikemen
+11 Long Swordsmen
+4 Men-at-Arms
+10 Archers
+3 Knights
+3 Light Cavalry
+1 Monk
+2 Mangonels
+2 Battering Rams
+Later:
+5 Throwing Axemen
+5 Knights
+15 Long Swordsmen
+5 Crossbowmen
+2 Battering Rams
+2 Monks
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Army:
+Identical to Moderate
+Later:
+3 Throwing Axemen
+5 Knights
+4 Long Swordsmen
+5 Crossbowmen
+2 Battering Ram
+1 Monk
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Army:
+Identical to Moderate
+Later:
+7 Throwing Axemen
+12 Knights
+15 Long Swordsmen
+5 Crossbowmen
+2 Battering Rams
+4 Monks</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Army:
+19 Camel Riders
+5 Mamelukes
+8 Camel Archers
+5 Onagers
+Later:
+5 Hussars
+6 Heavy Camel Riders
+10 Heavy Cavalry Archers
+10 Camel Archers
+2 Trebuchets
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Army:
+10 Camel Riders
+4 Mamelukes
+6 Camel Archers
+0 Onagers
+Later:
+6 Heavy Camel Riders
+2 Trebuchets
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Identical to Moderate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Army:
+4 Knights
+6 Camel Riders
+4 Cavalry Archers
+1 Mameluke
+Later:
+5 Knights
+6 Camel Riders
+10 Cavalry Archers
+4 Battering Rams
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Army: identical to Moderate
+Later:
+2 Knights
+4 Battering Rams
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Identical to Moderate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+10 Pikemen
+10 Elite Skirmishers
+6 Heavy Camel Riders
+3 Scorpions
+2 Trebuchets
+4 Galleons
+3 Heavy Demolition Ships
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+5 Pikemen
+6 Heavy Camel Riders
+2 Trebuchets
+3 Heavy Demolition Ships
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+10 Pikemen
+10 Elite Skirmishers
+6 Heavy Camel Riders
+3 Scorpions
+2 Trebuchets
+2 Monks
+4 Galleons
+3 Heavy Demolition Ships</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Army:
+3 Long Swordsmen
+5 Pikemen
+10 Archers
+2 Scout Cavalry
+5 Knights
+Later:
+10 Paladins
+10 Champions
+6 Archers
+2 Monks
+3 Mangonels
+4 Battering Rams
+3 Bombard Cannons
+1 Trebuchet
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Army:
+Identical to Moderate
+Later:
+10 Paladins
+10 Champions
+6 Archers
+3 Mangonels
+4 Battering Rams
+3 Bombard Cannons
+1 Trebuchet
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Army:
+Identical to Moderate
+Later:
+10 Paladins
+10 Champions
+6 Archers
+2 Monks
+3 Mangonels
+4 Battering Rams
+3 Bombard Cannons
+3 Trebuchets</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Slow Unlocking of all Monk-Techs
+Starting Troops of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>King Alfonso's Army</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Black Guard Navy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>stops training Trebuchets and Warships.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Wood given by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>King Alfonso's Army</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> depends on their Stockpile.
+I considered making the Docks progressive like the Castles, but they seem to minor?
+Destroying the Transports is in Vanilla stops </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Black Guard Navy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from training Trebuchets and Warships.
+Added Item to gain control of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>King Alfonso's Army's</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Troops that usually die against the Enemies in the initial Battle.</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">For just one Item it tuns out that El Cid wasn't so dead after all.
 Also, </t>
     </r>
@@ -2896,73 +3098,28 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>. Because why not.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Collecting the Relic requires Monks to be unlocked and either Monasteries to be unlocked or the Gaia Monastery.
-Defeating </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Yusuf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> requires Transport Ships and either Bombard Cannons, Trebuchets or Cannon Galleons.
-The </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Hero Towers </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>and</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Castles</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> require either Cannon Galleons or Transport Ships and Bombard Cannons or Trebuchets.</t>
+      <t xml:space="preserve">. Because why not.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF06EEFA"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Black Guard Army</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is meant to train 5 Hussars, but someone put in a Space to much.</t>
     </r>
   </si>
   <si>
@@ -3020,8 +3177,9 @@
 Starting Army:
 Identical to Moderate
 Later:
-0 Genitours
 3 Heavy Cavalry Archers
+4 Capped Rams
+4 Trebuchets
 </t>
     </r>
     <r>
@@ -3044,9 +3202,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Starting Army:
-Identical to Moderate
-Later:
 Identical to Moderate</t>
     </r>
   </si>
@@ -3082,6 +3237,7 @@
 6 Heavy Camel Riders
 5 Hussars
 4 Capped Rams
+1 Monk
 </t>
     </r>
     <r>
@@ -3108,10 +3264,9 @@
 Identical to Moderate
 Later:
 4 Fast Fire Ships
-3 Galleons
-0 Cannon Galleons
+2 Galleons
 10 Heavy Cavalry Archers
-0 Genitours
+2 Elite Genitour
 6 Heavy Camel Riders
 5 Hussars
 4 Capped Rams
@@ -3139,7 +3294,8 @@
       <t xml:space="preserve">
 Starting Army:
 Identical to Moderate
-Later:4 Fast Fire Ships
+Later:
+4 Fast Fire Ships
 8 Galleons
 3 Elite Cannon Galleons
 10 Heavy Cavalry Archers
@@ -3171,13 +3327,15 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-3 Fast Fire Ships
+4 Fast Fire Ships
 8 Galleons
 4 Elite Cannon Galleons
 10 Heavy Cavalry Archers
 2 Elite Genitours
 6 Heavy Camel Riders
-2 Hussars
+5 Hussars
+4 Capped Rams
+4 Trebuchets
 2 Monks
 </t>
     </r>
@@ -3201,12 +3359,11 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-0 Fire Ships
 2 Galleons
-1 Elite Cannon Galleon
+1 Elite Cannon Galleons
 10 Heavy Cavalry Archers
-0 Genitours
-6 Heavy Camel Rider
+2 Elite Genitours
+6 Heavy Camel Riders
 5 Hussars
 4 Capped Rams
 </t>
@@ -3231,17 +3388,16 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-3 Fast Fire Ships
+4 Fast Fire Ships
 8 Galleons
 4 Elite Cannon Galleons
-8 Heavy Cavalry Archers
+10 Heavy Cavalry Archers
 2 Elite Genitours
 6 Heavy Camel Riders
 5 Hussars
 4 Capped Rams
 4 Trebuchets
-4 Monks
-</t>
+4 Monks</t>
     </r>
   </si>
 </sst>
@@ -3872,8 +4028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2970CF8-14D4-4269-80E6-B32B13DFD70F}">
   <dimension ref="B2:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="H9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3922,24 +4078,24 @@
         <v>7</v>
       </c>
       <c r="J3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="2:17" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -3950,7 +4106,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>16</v>
@@ -3962,24 +4118,24 @@
         <v>17</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="2:17" ht="308.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3987,37 +4143,37 @@
         <v>9</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>23</v>
-      </c>
       <c r="E5" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
       <c r="Q5" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="2:17" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -4025,39 +4181,39 @@
         <v>10</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>28</v>
-      </c>
       <c r="I6" s="11" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="K6" s="8"/>
       <c r="L6" s="8" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
       <c r="Q6" s="8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="2:17" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -4065,43 +4221,43 @@
         <v>11</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
       <c r="Q7" s="8" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="2:17" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -4109,39 +4265,39 @@
         <v>12</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="F8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>35</v>
-      </c>
       <c r="I8" s="11" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
       <c r="Q8" s="8" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="2:17" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -4149,21 +4305,21 @@
         <v>13</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="8" t="s">
@@ -4179,7 +4335,7 @@
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
       <c r="Q9" s="8" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
